--- a/static/excel/产品导入模版.xlsx
+++ b/static/excel/产品导入模版.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulong/shuyun/pig-ui/static/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulong/diy_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
   <si>
     <t>产品全称</t>
     <rPh sb="0" eb="2">
@@ -466,6 +466,85 @@
     <rPh sb="0" eb="1">
       <t>hang hao</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T180807222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘聚利灵活配置测试1</t>
+  </si>
+  <si>
+    <t>天弘测试1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预热中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级市场</t>
+  </si>
+  <si>
+    <t>JJ管理人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD美元</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>收益对标基准</t>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股权分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TG银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度付息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价外认购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户AAAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行上海分行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8484848448</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +685,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -708,6 +787,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1025,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -1387,71 +1469,119 @@
       <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>46</v>
+        <v>75</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>77</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="34" t="s">
         <v>50</v>
       </c>
       <c r="L8" s="2">
         <v>3</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="18">
-        <v>6.5000000000000002E-2</v>
+        <v>80</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="2">
+        <v>6.5</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>100</v>
+        <v>82</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
+      <c r="T8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="3"/>
+      <c r="Y8" s="2">
+        <v>8</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>800</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>43144</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>43499</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>43499</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>43313</v>
+      </c>
+      <c r="AM8" s="5">
+        <v>43327</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1462,30 +1592,12 @@
     <mergeCell ref="A1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB8">
-      <formula1>"无需认购费,价内认购,价外认购"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V8 AA8">
-      <formula1>"季度付息,自然季度付息,半年度付息,按年付息,到期还本付息"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8">
-      <formula1>"大陆,港澳台,境外"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
-      <formula1>"固收,理财,另类投资,二级市场"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8">
-      <formula1>"契约型基金,有限合伙"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:N1048576 M7:M8">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:N1048576 N8 M7:M8">
       <formula1>"天,月,年"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
       <formula1>"在建中,预热中,募集中,已关账,已成立,兑付中,兑付完成"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8">
-      <formula1>"人民币,美元,欧元,港币,英镑,日元,韩元,加元,澳元,瑞朗"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X8">
       <formula1>"产品分期,募集分期"</formula1>
@@ -1493,18 +1605,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>工作表3!$A$2:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>H8</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 

--- a/static/excel/产品导入模版.xlsx
+++ b/static/excel/产品导入模版.xlsx
@@ -1,40 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulong/diy_download/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ypzhuang/work/projects/vue_projects/pig-ui/static/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5AD5D1DF-0810-8E43-81AE-6C2F390E5B15}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="4" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
-    <sheet name="工作表1 (BAK)" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$B$7:$AK$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'工作表1 (BAK)'!$A$6:$AJ$6</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>产品全称</t>
     <rPh sb="0" eb="2">
@@ -192,12 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
     <t>产品状态</t>
     <rPh sb="0" eb="2">
       <t>chan p</t>
@@ -205,19 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在建中</t>
-  </si>
-  <si>
-    <t>是否重点产品</t>
-    <rPh sb="0" eb="2">
-      <t>shi fou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
     <t>重点产品起始时间</t>
     <rPh sb="0" eb="2">
       <t>zhong dian</t>
@@ -236,10 +216,6 @@
     <rPh sb="0" eb="2">
       <t>mu ji</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -261,21 +237,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
-    <rPh sb="0" eb="1">
-      <t>wan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6226090212901025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <rPh sb="0" eb="1">
-      <t>xiao shi</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -318,20 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>固收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契约型基金</t>
-  </si>
-  <si>
-    <t>汇率</t>
-    <rPh sb="0" eb="2">
-      <t>hui lü</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>购买人群</t>
     <rPh sb="0" eb="2">
       <t>gou mai</t>
@@ -412,9 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>季度付息</t>
-  </si>
-  <si>
     <t>3、支持国内、国际手机号（国内手机号直接输入手机号即可；国际手机号必须包含加号以及国家地区码，格式示例：“+85259****24”）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,13 +372,6 @@
     <rPh sb="0" eb="3">
       <t>ren gou fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无需认购费</t>
-  </si>
-  <si>
-    <t>1%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -551,19 +489,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -590,27 +528,15 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -633,59 +559,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,60 +578,15 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -770,6 +605,9 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -785,15 +623,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1104,14 +936,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="20.1640625" style="1" customWidth="1"/>
@@ -1127,10 +959,10 @@
     <col min="13" max="13" width="10.83203125" style="1"/>
     <col min="14" max="14" width="17.1640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="27.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.83203125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.6640625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="18.1640625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="18.83203125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="18.1640625" style="5" customWidth="1"/>
     <col min="20" max="20" width="16.83203125" style="1" customWidth="1"/>
     <col min="21" max="21" width="15.5" style="1" customWidth="1"/>
     <col min="22" max="23" width="27.33203125" style="1" customWidth="1"/>
@@ -1138,268 +970,268 @@
     <col min="25" max="25" width="21.6640625" style="1" customWidth="1"/>
     <col min="26" max="26" width="26.6640625" style="1" customWidth="1"/>
     <col min="27" max="27" width="27.33203125" style="1" customWidth="1"/>
-    <col min="28" max="29" width="25.33203125" style="6" customWidth="1"/>
+    <col min="28" max="29" width="25.33203125" style="5" customWidth="1"/>
     <col min="30" max="30" width="20.33203125" style="1" customWidth="1"/>
     <col min="31" max="31" width="20.6640625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="25.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="25.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="25.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="25.33203125" style="5" customWidth="1"/>
     <col min="35" max="35" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="20.6640625" style="1" customWidth="1"/>
     <col min="39" max="39" width="21" style="1" customWidth="1"/>
-    <col min="40" max="40" width="19" style="6" customWidth="1"/>
+    <col min="40" max="40" width="19" style="5" customWidth="1"/>
     <col min="41" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-    </row>
-    <row r="2" spans="1:40" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="31"/>
-    </row>
-    <row r="3" spans="1:40" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="Q4" s="17"/>
-      <c r="U4" s="17"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="22"/>
-      <c r="AJ5" s="22"/>
-      <c r="AK5" s="22"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="22"/>
-      <c r="AN5" s="23"/>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="24" t="s">
+    <row r="1" spans="1:40">
+      <c r="A1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+    </row>
+    <row r="2" spans="1:40" ht="19">
+      <c r="A2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+    </row>
+    <row r="3" spans="1:40" ht="19">
+      <c r="A3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+    </row>
+    <row r="4" spans="1:40">
+      <c r="A4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="Q4" s="6"/>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:40">
+      <c r="A5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="8"/>
+    </row>
+    <row r="7" spans="1:40">
+      <c r="A7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="25" t="s">
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="24" t="s">
+      <c r="K7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="M7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="P7" s="27" t="s">
-        <v>32</v>
+      <c r="N7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="S7" s="27" t="s">
-        <v>35</v>
+      <c r="R7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>13</v>
@@ -1408,43 +1240,43 @@
         <v>12</v>
       </c>
       <c r="V7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="AC7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y7" s="2" t="s">
+      <c r="AD7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE7" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF7" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG7" s="27" t="s">
-        <v>59</v>
+      <c r="AE7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG7" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AI7" s="2" t="s">
         <v>9</v>
@@ -1456,81 +1288,81 @@
         <v>11</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
       <c r="A8" s="2">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>77</v>
+        <v>61</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>50</v>
+        <v>64</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="L8" s="2">
         <v>3</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="O8" s="2">
         <v>6.5</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -1541,46 +1373,46 @@
         <v>800</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI8" s="5">
+        <v>78</v>
+      </c>
+      <c r="AI8" s="4">
         <v>43144</v>
       </c>
-      <c r="AJ8" s="5">
+      <c r="AJ8" s="4">
         <v>43499</v>
       </c>
-      <c r="AK8" s="5">
+      <c r="AK8" s="4">
         <v>43499</v>
       </c>
-      <c r="AL8" s="5">
+      <c r="AL8" s="4">
         <v>43313</v>
       </c>
-      <c r="AM8" s="5">
+      <c r="AM8" s="4">
         <v>43327</v>
       </c>
       <c r="AN8" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1593,13 +1425,13 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:N1048576 N8 M7:M8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:N1048576 N8 M7:M8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"天,月,年"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"在建中,预热中,募集中,已关账,已成立,兑付中,兑付完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X8" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"产品分期,募集分期"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1609,31 +1441,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1645,44 +1477,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1691,509 +1523,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN7"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A11" sqref="A9:XFD11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="16.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="16.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="17.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="27.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="13.83203125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.1640625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="16.83203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5" style="1" customWidth="1"/>
-    <col min="21" max="22" width="27.33203125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="16.5" style="1" customWidth="1"/>
-    <col min="24" max="24" width="21.6640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="26.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="27.33203125" style="1" customWidth="1"/>
-    <col min="27" max="28" width="25.33203125" style="6" customWidth="1"/>
-    <col min="29" max="29" width="20.33203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="20.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="25.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="25.33203125" style="6" customWidth="1"/>
-    <col min="34" max="34" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.33203125" style="1" customWidth="1"/>
-    <col min="38" max="38" width="20.6640625" style="1" customWidth="1"/>
-    <col min="39" max="39" width="21" style="1" customWidth="1"/>
-    <col min="40" max="40" width="19" style="6" customWidth="1"/>
-    <col min="41" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-    </row>
-    <row r="2" spans="1:40" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="31"/>
-    </row>
-    <row r="3" spans="1:40" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="T4" s="17"/>
-    </row>
-    <row r="5" spans="1:40" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="11"/>
-      <c r="AL5" s="11"/>
-      <c r="AM5" s="11"/>
-      <c r="AN5" s="12"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="W6" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA6" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB6" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD6" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE6" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF6" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG6" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN6" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="2">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="18">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="21">
-        <v>6.4</v>
-      </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA7" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB7" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="4">
-        <v>43144</v>
-      </c>
-      <c r="AI7" s="5">
-        <v>43499</v>
-      </c>
-      <c r="AJ7" s="5">
-        <v>43499</v>
-      </c>
-      <c r="AK7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL7" s="5">
-        <v>43134</v>
-      </c>
-      <c r="AM7" s="5">
-        <v>43139</v>
-      </c>
-      <c r="AN7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:AN1"/>
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="A2:AN2"/>
-    <mergeCell ref="A5:T5"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"人民币,美元,欧元,港币,英镑,日元,韩元,加元,澳元,瑞朗"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
-      <formula1>"在建中,预热中,募集中,已关账,已成立,兑付中,兑付完成"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:M3 L6:L8 L9:M1048576">
-      <formula1>"天,月,年"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK3 AK6:AK1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7">
-      <formula1>"契约型基金,有限合伙"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7">
-      <formula1>"固收,理财,另类投资,二级市场"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7">
-      <formula1>"大陆,港澳台,境外"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U7 Z7">
-      <formula1>"季度付息,自然季度付息,半年度付息,按年付息,到期还本付息"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA7">
-      <formula1>"无需认购费,价内认购,价外认购"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>工作表3!$A$2:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>G7</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/static/excel/产品导入模版.xlsx
+++ b/static/excel/产品导入模版.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ypzhuang/work/projects/vue_projects/pig-ui/static/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulong/diy_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5AD5D1DF-0810-8E43-81AE-6C2F390E5B15}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="4" r:id="rId1"/>
@@ -20,13 +19,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$B$7:$AK$7</definedName>
   </definedNames>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -422,86 +421,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>二级市场</t>
+  </si>
+  <si>
+    <t>JJ管理人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD美元</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>收益对标基准</t>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股权分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TG银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度付息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价外认购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户AAAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行上海分行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8484848448</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>测试三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级市场</t>
-  </si>
-  <si>
-    <t>JJ管理人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USD美元</t>
-  </si>
-  <si>
-    <t>年</t>
-  </si>
-  <si>
-    <t>收益对标基准</t>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>股权分配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZC团队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TG银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>季度付息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价外认购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户AAAA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行上海分行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8484848448</t>
+    <rPh sb="0" eb="1">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>san</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -578,9 +586,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,9 +628,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -936,14 +944,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="20.1640625" style="1" customWidth="1"/>
@@ -959,10 +967,10 @@
     <col min="13" max="13" width="10.83203125" style="1"/>
     <col min="14" max="14" width="17.1640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="27.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.83203125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" style="5" customWidth="1"/>
-    <col min="18" max="18" width="18.6640625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="18.1640625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="18.83203125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="18.1640625" style="4" customWidth="1"/>
     <col min="20" max="20" width="16.83203125" style="1" customWidth="1"/>
     <col min="21" max="21" width="15.5" style="1" customWidth="1"/>
     <col min="22" max="23" width="27.33203125" style="1" customWidth="1"/>
@@ -970,267 +978,267 @@
     <col min="25" max="25" width="21.6640625" style="1" customWidth="1"/>
     <col min="26" max="26" width="26.6640625" style="1" customWidth="1"/>
     <col min="27" max="27" width="27.33203125" style="1" customWidth="1"/>
-    <col min="28" max="29" width="25.33203125" style="5" customWidth="1"/>
+    <col min="28" max="29" width="25.33203125" style="4" customWidth="1"/>
     <col min="30" max="30" width="20.33203125" style="1" customWidth="1"/>
     <col min="31" max="31" width="20.6640625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="25.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="25.33203125" style="5" customWidth="1"/>
+    <col min="32" max="32" width="25.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="25.33203125" style="4" customWidth="1"/>
     <col min="35" max="35" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="20.6640625" style="1" customWidth="1"/>
     <col min="39" max="39" width="21" style="1" customWidth="1"/>
-    <col min="40" max="40" width="19" style="5" customWidth="1"/>
+    <col min="40" max="40" width="19" style="4" customWidth="1"/>
     <col min="41" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-    </row>
-    <row r="2" spans="1:40" ht="19">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+    </row>
+    <row r="2" spans="1:40" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-    </row>
-    <row r="3" spans="1:40" ht="19">
-      <c r="A3" s="16" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+    </row>
+    <row r="3" spans="1:40" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-    </row>
-    <row r="4" spans="1:40">
-      <c r="A4" s="15" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="Q4" s="6"/>
-      <c r="U4" s="6"/>
-    </row>
-    <row r="5" spans="1:40">
-      <c r="A5" s="14" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="Q4" s="5"/>
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="8"/>
-    </row>
-    <row r="7" spans="1:40">
-      <c r="A7" s="9" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="7"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="11" t="s">
         <v>27</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="S7" s="11" t="s">
         <v>29</v>
       </c>
       <c r="T7" s="2" t="s">
@@ -1266,13 +1274,13 @@
       <c r="AD7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AE7" s="9" t="s">
+      <c r="AE7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AF7" s="12" t="s">
+      <c r="AF7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AG7" s="12" t="s">
+      <c r="AG7" s="11" t="s">
         <v>48</v>
       </c>
       <c r="AH7" s="3" t="s">
@@ -1297,7 +1305,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1313,38 +1321,38 @@
       <c r="E8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="12" t="s">
         <v>39</v>
       </c>
       <c r="L8" s="2">
         <v>3</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="O8" s="2">
         <v>6.5</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>30</v>
@@ -1356,13 +1364,13 @@
         <v>30</v>
       </c>
       <c r="T8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -1373,46 +1381,46 @@
         <v>800</v>
       </c>
       <c r="AA8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AC8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AD8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AD8" s="2" t="s">
+      <c r="AE8" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="AE8" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="AF8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="AG8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AH8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI8" s="4">
+      <c r="AI8" s="18">
         <v>43144</v>
       </c>
-      <c r="AJ8" s="4">
+      <c r="AJ8" s="18">
         <v>43499</v>
       </c>
-      <c r="AK8" s="4">
+      <c r="AK8" s="18">
         <v>43499</v>
       </c>
-      <c r="AL8" s="4">
+      <c r="AL8" s="18">
         <v>43313</v>
       </c>
-      <c r="AM8" s="4">
+      <c r="AM8" s="18">
         <v>43327</v>
       </c>
       <c r="AN8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1425,13 +1433,13 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:N1048576 N8 M7:M8" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:N1048576 N8 M7:M8">
       <formula1>"天,月,年"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
       <formula1>"在建中,预热中,募集中,已关账,已成立,兑付中,兑付完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X8" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X8">
       <formula1>"产品分期,募集分期"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1441,31 +1449,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1477,44 +1485,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>

--- a/static/excel/产品导入模版.xlsx
+++ b/static/excel/产品导入模版.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulong/diy_download/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\阿熙\Desktop\模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5ED7740B-99A3-4EE3-8C9A-98BFD452BBCC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="4" r:id="rId1"/>
@@ -19,20 +20,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$B$7:$AK$7</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>产品全称</t>
     <rPh sb="0" eb="2">
@@ -406,95 +407,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T180807222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天弘聚利灵活配置测试1</t>
-  </si>
-  <si>
-    <t>天弘测试1</t>
+    <t>测试三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级市场</t>
+  </si>
+  <si>
+    <t>JJ管理人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD美元</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股权分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TG银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度付息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价外认购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户AAAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行上海分行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8484848448</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX-A000063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发全球医疗保健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发医疗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>预热中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级市场</t>
-  </si>
-  <si>
-    <t>JJ管理人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USD美元</t>
-  </si>
-  <si>
-    <t>年</t>
-  </si>
-  <si>
-    <t>收益对标基准</t>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>股权分配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZC团队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TG银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>季度付息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价外认购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户AAAA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行上海分行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8484848448</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试三</t>
-    <rPh sb="0" eb="1">
-      <t>ce shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>san</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告哈哈哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮动收益</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -573,7 +580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -629,6 +636,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -944,54 +969,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AN32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="20.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="16.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="1"/>
-    <col min="14" max="14" width="17.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="27.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.83203125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="18.6640625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="18.1640625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="16.83203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5" style="1" customWidth="1"/>
-    <col min="22" max="23" width="27.33203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="16.5" style="1" customWidth="1"/>
-    <col min="25" max="25" width="21.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="26.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="27.33203125" style="1" customWidth="1"/>
-    <col min="28" max="29" width="25.33203125" style="4" customWidth="1"/>
-    <col min="30" max="30" width="20.33203125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="20.6640625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="25.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="25.33203125" style="4" customWidth="1"/>
-    <col min="35" max="35" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20.6640625" style="1" customWidth="1"/>
-    <col min="39" max="39" width="21" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="1"/>
+    <col min="2" max="2" width="20.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" style="1"/>
+    <col min="11" max="11" width="16.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.36328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" style="1"/>
+    <col min="14" max="14" width="17.1796875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.36328125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.81640625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="13.81640625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="18.6328125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="18.1796875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="16.81640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" style="1" customWidth="1"/>
+    <col min="22" max="23" width="27.36328125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="16.453125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="21.6328125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="26.6328125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="27.36328125" style="1" customWidth="1"/>
+    <col min="28" max="29" width="25.36328125" style="4" customWidth="1"/>
+    <col min="30" max="30" width="20.36328125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="20.6328125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="25.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="25.36328125" style="4" customWidth="1"/>
+    <col min="35" max="35" width="14.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="12.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.6328125" style="20" customWidth="1"/>
+    <col min="39" max="39" width="21" style="20" customWidth="1"/>
     <col min="40" max="40" width="19" style="4" customWidth="1"/>
-    <col min="41" max="16384" width="10.83203125" style="1"/>
+    <col min="41" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>35</v>
       </c>
@@ -1028,14 +1053,14 @@
       <c r="AF1" s="17"/>
       <c r="AG1" s="17"/>
       <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
       <c r="AN1" s="17"/>
     </row>
-    <row r="2" spans="1:40" ht="19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>33</v>
       </c>
@@ -1072,14 +1097,14 @@
       <c r="AF2" s="16"/>
       <c r="AG2" s="16"/>
       <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
       <c r="AN2" s="16"/>
     </row>
-    <row r="3" spans="1:40" ht="19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>34</v>
       </c>
@@ -1116,14 +1141,14 @@
       <c r="AF3" s="15"/>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
       <c r="AN3" s="15"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>50</v>
       </c>
@@ -1139,7 +1164,7 @@
       <c r="Q4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>51</v>
       </c>
@@ -1176,14 +1201,14 @@
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="24"/>
       <c r="AN5" s="7"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>57</v>
       </c>
@@ -1305,54 +1330,52 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="G8" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="2">
-        <v>3</v>
+      <c r="L8" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O8" s="2">
-        <v>6.5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="O8" s="2"/>
       <c r="P8" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>30</v>
@@ -1364,13 +1387,13 @@
         <v>30</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -1381,47 +1404,113 @@
         <v>800</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI8" s="18">
-        <v>43144</v>
-      </c>
-      <c r="AJ8" s="18">
-        <v>43499</v>
-      </c>
-      <c r="AK8" s="18">
-        <v>43499</v>
-      </c>
-      <c r="AL8" s="18">
-        <v>43313</v>
-      </c>
-      <c r="AM8" s="18">
-        <v>43327</v>
+        <v>72</v>
+      </c>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM8" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="AN8" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1432,15 +1521,18 @@
     <mergeCell ref="A1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:N1048576 N8 M7:M8">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"天,月,年"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"在建中,预热中,募集中,已关账,已成立,兑付中,兑付完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X8" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"产品分期,募集分期"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N1048576 N1:N6" xr:uid="{0ECC3243-EBD7-4A0E-884C-9BC04E1CF906}">
+      <formula1>"浮动收益,收益对标基准"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1449,31 +1541,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1485,44 +1577,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>

--- a/static/excel/产品导入模版.xlsx
+++ b/static/excel/产品导入模版.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10329"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ypzhuang/work/projects/vue_projects/pig-ui/static/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\阿熙\Desktop\模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5AD5D1DF-0810-8E43-81AE-6C2F390E5B15}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5ED7740B-99A3-4EE3-8C9A-98BFD452BBCC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$B$7:$AK$7</definedName>
   </definedNames>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>产品全称</t>
     <rPh sb="0" eb="2">
@@ -407,101 +407,116 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T180807222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天弘聚利灵活配置测试1</t>
-  </si>
-  <si>
-    <t>天弘测试1</t>
+    <t>测试三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级市场</t>
+  </si>
+  <si>
+    <t>JJ管理人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD美元</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股权分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZC团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TG银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季度付息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价外认购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户AAAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行上海分行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8484848448</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX-A000063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发全球医疗保健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发医疗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>预热中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级市场</t>
-  </si>
-  <si>
-    <t>JJ管理人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USD美元</t>
-  </si>
-  <si>
-    <t>年</t>
-  </si>
-  <si>
-    <t>收益对标基准</t>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>股权分配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZC团队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TG银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>季度付息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价外认购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户AAAA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行上海分行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8484848448</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告哈哈哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-08-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮动收益</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -565,7 +580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,9 +593,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,9 +635,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -937,300 +970,300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN8"/>
+  <dimension ref="A1:AN32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="20.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="16.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="1"/>
-    <col min="14" max="14" width="17.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="27.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.83203125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" style="5" customWidth="1"/>
-    <col min="18" max="18" width="18.6640625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="18.1640625" style="5" customWidth="1"/>
-    <col min="20" max="20" width="16.83203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5" style="1" customWidth="1"/>
-    <col min="22" max="23" width="27.33203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="16.5" style="1" customWidth="1"/>
-    <col min="25" max="25" width="21.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="26.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="27.33203125" style="1" customWidth="1"/>
-    <col min="28" max="29" width="25.33203125" style="5" customWidth="1"/>
-    <col min="30" max="30" width="20.33203125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="20.6640625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="25.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="25.33203125" style="5" customWidth="1"/>
-    <col min="35" max="35" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20.6640625" style="1" customWidth="1"/>
-    <col min="39" max="39" width="21" style="1" customWidth="1"/>
-    <col min="40" max="40" width="19" style="5" customWidth="1"/>
-    <col min="41" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.81640625" style="1"/>
+    <col min="2" max="2" width="20.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" style="1"/>
+    <col min="11" max="11" width="16.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.36328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" style="1"/>
+    <col min="14" max="14" width="17.1796875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.36328125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.81640625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="13.81640625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="18.6328125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="18.1796875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="16.81640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" style="1" customWidth="1"/>
+    <col min="22" max="23" width="27.36328125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="16.453125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="21.6328125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="26.6328125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="27.36328125" style="1" customWidth="1"/>
+    <col min="28" max="29" width="25.36328125" style="4" customWidth="1"/>
+    <col min="30" max="30" width="20.36328125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="20.6328125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="25.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="25.36328125" style="4" customWidth="1"/>
+    <col min="35" max="35" width="14.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="12.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.6328125" style="20" customWidth="1"/>
+    <col min="39" max="39" width="21" style="20" customWidth="1"/>
+    <col min="40" max="40" width="19" style="4" customWidth="1"/>
+    <col min="41" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-    </row>
-    <row r="2" spans="1:40" ht="19">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="17"/>
+    </row>
+    <row r="2" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-    </row>
-    <row r="3" spans="1:40" ht="19">
-      <c r="A3" s="16" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="16"/>
+    </row>
+    <row r="3" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-    </row>
-    <row r="4" spans="1:40">
-      <c r="A4" s="15" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="15"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="Q4" s="6"/>
-      <c r="U4" s="6"/>
-    </row>
-    <row r="5" spans="1:40">
-      <c r="A5" s="14" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="Q4" s="5"/>
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="8"/>
-    </row>
-    <row r="7" spans="1:40">
-      <c r="A7" s="9" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="7"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="11" t="s">
         <v>27</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="S7" s="11" t="s">
         <v>29</v>
       </c>
       <c r="T7" s="2" t="s">
@@ -1266,13 +1299,13 @@
       <c r="AD7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AE7" s="9" t="s">
+      <c r="AE7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AF7" s="12" t="s">
+      <c r="AF7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AG7" s="12" t="s">
+      <c r="AG7" s="11" t="s">
         <v>48</v>
       </c>
       <c r="AH7" s="3" t="s">
@@ -1297,54 +1330,52 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="G8" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="2">
-        <v>3</v>
+      <c r="L8" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O8" s="2">
-        <v>6.5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="O8" s="2"/>
       <c r="P8" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>30</v>
@@ -1356,13 +1387,13 @@
         <v>30</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -1373,47 +1404,113 @@
         <v>800</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AF8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI8" s="4">
-        <v>43144</v>
-      </c>
-      <c r="AJ8" s="4">
-        <v>43499</v>
-      </c>
-      <c r="AK8" s="4">
-        <v>43499</v>
-      </c>
-      <c r="AL8" s="4">
-        <v>43313</v>
-      </c>
-      <c r="AM8" s="4">
-        <v>43327</v>
+        <v>72</v>
+      </c>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM8" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="AN8" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1424,8 +1521,8 @@
     <mergeCell ref="A1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:N1048576 N8 M7:M8" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"天,月,年"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{00000000-0002-0000-0000-000001000000}">
@@ -1433,6 +1530,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X8" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"产品分期,募集分期"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N1048576 N1:N6" xr:uid="{0ECC3243-EBD7-4A0E-884C-9BC04E1CF906}">
+      <formula1>"浮动收益,收益对标基准"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1448,24 +1548,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1484,37 +1584,37 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>

--- a/static/excel/产品导入模版.xlsx
+++ b/static/excel/产品导入模版.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\阿熙\Desktop\模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ada/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{256ACBDE-32BD-4BA9-9E81-BCBA95266A11}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="9020"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="4" r:id="rId1"/>
@@ -20,13 +19,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$B$7:$AK$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -476,9 +478,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预热中</t>
-  </si>
-  <si>
     <t>3+2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -496,12 +495,15 @@
   <si>
     <t>公告哈哈哈哈哈哈哈哈哈哈哈哈你</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在建</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -969,54 +971,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="1"/>
-    <col min="2" max="2" width="20.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="16.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" style="1"/>
-    <col min="11" max="11" width="16.453125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.36328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" style="1"/>
-    <col min="14" max="14" width="17.1796875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="27.36328125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.81640625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="13.81640625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="18.6328125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="18.1796875" style="4" customWidth="1"/>
-    <col min="20" max="20" width="16.81640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.453125" style="1" customWidth="1"/>
-    <col min="22" max="23" width="27.36328125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="16.453125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="21.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="26.6328125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="27.36328125" style="1" customWidth="1"/>
-    <col min="28" max="29" width="25.36328125" style="4" customWidth="1"/>
-    <col min="30" max="30" width="20.36328125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="20.6328125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="25.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="25.36328125" style="4" customWidth="1"/>
-    <col min="35" max="35" width="14.1796875" style="15" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="12.6328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20.6328125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="20.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="17.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.83203125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="18.1640625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="16.83203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5" style="1" customWidth="1"/>
+    <col min="22" max="23" width="27.33203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="21.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="26.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="27.33203125" style="1" customWidth="1"/>
+    <col min="28" max="29" width="25.33203125" style="4" customWidth="1"/>
+    <col min="30" max="30" width="20.33203125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="20.6640625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="25.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="25.33203125" style="4" customWidth="1"/>
+    <col min="35" max="35" width="14.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="12.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.6640625" style="15" customWidth="1"/>
     <col min="39" max="39" width="21" style="15" customWidth="1"/>
     <col min="40" max="40" width="19" style="4" customWidth="1"/>
-    <col min="41" max="16384" width="10.81640625" style="1"/>
+    <col min="41" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>35</v>
       </c>
@@ -1060,7 +1062,7 @@
       <c r="AM1" s="24"/>
       <c r="AN1" s="23"/>
     </row>
-    <row r="2" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>33</v>
       </c>
@@ -1104,7 +1106,7 @@
       <c r="AM2" s="22"/>
       <c r="AN2" s="21"/>
     </row>
-    <row r="3" spans="1:40" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>34</v>
       </c>
@@ -1148,7 +1150,7 @@
       <c r="AM3" s="20"/>
       <c r="AN3" s="19"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>50</v>
       </c>
@@ -1164,7 +1166,7 @@
       <c r="Q4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>51</v>
       </c>
@@ -1208,7 +1210,7 @@
       <c r="AM5" s="16"/>
       <c r="AN5" s="7"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>57</v>
       </c>
@@ -1330,7 +1332,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1344,7 +1346,7 @@
         <v>75</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>58</v>
@@ -1365,13 +1367,13 @@
         <v>39</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="3" t="s">
@@ -1413,7 +1415,7 @@
         <v>69</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AE8" s="2" t="s">
         <v>70</v>
@@ -1431,85 +1433,85 @@
       <c r="AJ8" s="13"/>
       <c r="AK8" s="13"/>
       <c r="AL8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM8" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="AM8" s="14" t="s">
-        <v>79</v>
       </c>
       <c r="AN8" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N28" s="6"/>
     </row>
-    <row r="29" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N32" s="6"/>
     </row>
   </sheetData>
@@ -1522,16 +1524,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M1048576">
       <formula1>"天,月,年"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"在建中,预热中,募集中,已关账,已成立,兑付中,兑付完成"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
+      <formula1>"在建,预热中,募集中,已关账,已成立,兑付中,兑付完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X8" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X8">
       <formula1>"产品分期,募集分期"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N1048576 N1:N6" xr:uid="{0ECC3243-EBD7-4A0E-884C-9BC04E1CF906}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N1048576 N1:N6">
       <formula1>"浮动收益,收益对标基准"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1541,31 +1543,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1577,19 +1579,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
